--- a/docs/vocabulary.xlsx
+++ b/docs/vocabulary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="134">
   <si>
     <t>ENG</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>дата анализа</t>
-  </si>
-  <si>
-    <t>result</t>
   </si>
   <si>
     <t>результат</t>
@@ -267,12 +264,6 @@
     <t>название диагноза</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>Rates_vaccinations</t>
   </si>
   <si>
@@ -411,16 +402,7 @@
     <t>week_day</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
     <t>Дни недели</t>
-  </si>
-  <si>
-    <t>День недели</t>
-  </si>
-  <si>
-    <t>время</t>
   </si>
   <si>
     <t>дозировка</t>
@@ -449,6 +431,24 @@
   </si>
   <si>
     <t>Типы аллергенов</t>
+  </si>
+  <si>
+    <t>work_time</t>
+  </si>
+  <si>
+    <t>рабочие часы</t>
+  </si>
+  <si>
+    <t>Work_time</t>
+  </si>
+  <si>
+    <t>reception_date</t>
+  </si>
+  <si>
+    <t>reception_time</t>
+  </si>
+  <si>
+    <t>analysis_result</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -582,14 +582,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -910,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C76"/>
+  <dimension ref="B2:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,58 +1078,58 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -1143,103 +1137,103 @@
         <v>40</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -1252,58 +1246,58 @@
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>128</v>
+        <v>106</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
@@ -1316,26 +1310,26 @@
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
@@ -1356,58 +1350,58 @@
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>114</v>
+        <v>107</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>125</v>
+        <v>108</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>126</v>
+        <v>109</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>127</v>
+        <v>110</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
@@ -1436,90 +1430,82 @@
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>124</v>
+        <v>130</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/docs/vocabulary.xlsx
+++ b/docs/vocabulary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="104">
   <si>
     <t>ENG</t>
   </si>
@@ -143,9 +143,6 @@
     <t>описание</t>
   </si>
   <si>
-    <t>vaccination_title</t>
-  </si>
-  <si>
     <t>Examination</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>analysis_date</t>
   </si>
   <si>
-    <t>дата анализа</t>
-  </si>
-  <si>
     <t>результат</t>
   </si>
   <si>
@@ -191,34 +185,16 @@
     <t>Запись к доктору</t>
   </si>
   <si>
-    <t>дата приема</t>
-  </si>
-  <si>
-    <t>время приема</t>
-  </si>
-  <si>
     <t>Laboratory_reception</t>
   </si>
   <si>
     <t>Запись в лабораторию</t>
   </si>
   <si>
-    <t>laboratory_date</t>
-  </si>
-  <si>
-    <t>laboratory_time</t>
-  </si>
-  <si>
     <t>Laboratory_schedule</t>
   </si>
   <si>
     <t>График лаборатории</t>
-  </si>
-  <si>
-    <t>рабочий день</t>
-  </si>
-  <si>
-    <t>время работы</t>
   </si>
   <si>
     <t>Doctor_schedule</t>
@@ -264,57 +240,9 @@
     <t>название диагноза</t>
   </si>
   <si>
-    <t>Rates_vaccinations</t>
-  </si>
-  <si>
-    <t>Vaccinations</t>
-  </si>
-  <si>
-    <t>Rates_blood</t>
-  </si>
-  <si>
-    <t>Blood_group</t>
-  </si>
-  <si>
     <t>group_title</t>
   </si>
   <si>
-    <t>RH_factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rh_title </t>
-  </si>
-  <si>
-    <t>типы вакцин</t>
-  </si>
-  <si>
-    <t>Вакцины</t>
-  </si>
-  <si>
-    <t>наименование вакцины</t>
-  </si>
-  <si>
-    <t>Типы крови</t>
-  </si>
-  <si>
-    <t>Группа крови</t>
-  </si>
-  <si>
-    <t>наименование группы</t>
-  </si>
-  <si>
-    <t>резус-фактор</t>
-  </si>
-  <si>
-    <t>наименование резус-фактора</t>
-  </si>
-  <si>
-    <t>Rates_chronyc_illnesses</t>
-  </si>
-  <si>
-    <t>Rates_drugs</t>
-  </si>
-  <si>
     <t>Illnesses</t>
   </si>
   <si>
@@ -327,12 +255,6 @@
     <t>ilnesses_gr_title</t>
   </si>
   <si>
-    <t>drug_title</t>
-  </si>
-  <si>
-    <t>типы хронических заболеваний</t>
-  </si>
-  <si>
     <t>заболевания</t>
   </si>
   <si>
@@ -345,27 +267,6 @@
     <t>наименование группы заболеваний</t>
   </si>
   <si>
-    <t>Типы лекарств</t>
-  </si>
-  <si>
-    <t>Наименование лекарства</t>
-  </si>
-  <si>
-    <t>Rates_allergens</t>
-  </si>
-  <si>
-    <t>Allergens</t>
-  </si>
-  <si>
-    <t>allergens_title</t>
-  </si>
-  <si>
-    <t>Allergy_group</t>
-  </si>
-  <si>
-    <t>allergy_gr_title</t>
-  </si>
-  <si>
     <t>analysis_tittle</t>
   </si>
   <si>
@@ -394,12 +295,6 @@
   </si>
   <si>
     <t>название специализации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">week_day </t>
-  </si>
-  <si>
-    <t>week_day</t>
   </si>
   <si>
     <t>Дни недели</t>
@@ -418,24 +313,6 @@
     <t>Наименование анализов</t>
   </si>
   <si>
-    <t>наименование аллергенов</t>
-  </si>
-  <si>
-    <t>группы аллергенов</t>
-  </si>
-  <si>
-    <t>наименование группы аллергенов</t>
-  </si>
-  <si>
-    <t>Аллергены</t>
-  </si>
-  <si>
-    <t>Типы аллергенов</t>
-  </si>
-  <si>
-    <t>work_time</t>
-  </si>
-  <si>
     <t>рабочие часы</t>
   </si>
   <si>
@@ -445,10 +322,43 @@
     <t>reception_date</t>
   </si>
   <si>
-    <t>reception_time</t>
-  </si>
-  <si>
     <t>analysis_result</t>
+  </si>
+  <si>
+    <t>дата и время приема</t>
+  </si>
+  <si>
+    <t>дата и время анализа</t>
+  </si>
+  <si>
+    <t>measure</t>
+  </si>
+  <si>
+    <t>единица измерения</t>
+  </si>
+  <si>
+    <t>Week_day</t>
+  </si>
+  <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>Eдиницы измерения</t>
+  </si>
+  <si>
+    <t>Group_info</t>
+  </si>
+  <si>
+    <t>Additional_info</t>
+  </si>
+  <si>
+    <t>Вид информации</t>
+  </si>
+  <si>
+    <t>наименоваие информации</t>
+  </si>
+  <si>
+    <t>Дополнительная информация</t>
   </si>
 </sst>
 </file>
@@ -545,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -569,7 +479,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -598,6 +507,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -904,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C75"/>
+  <dimension ref="B2:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,435 +992,299 @@
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>127</v>
+      <c r="B22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>126</v>
+      <c r="B23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>123</v>
+      <c r="B24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>124</v>
+      <c r="B25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>125</v>
+      <c r="B26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>79</v>
+      <c r="B27" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>83</v>
+      <c r="B31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="19" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="C40" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>100</v>
+      <c r="B41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>122</v>
+      <c r="B42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
-        <v>131</v>
+        <v>4</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>59</v>
+      <c r="B47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>56</v>
+      <c r="B48" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>47</v>
+      <c r="B51" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>49</v>
+      <c r="B52" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>51</v>
+      <c r="B53" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>42</v>
+      <c r="B54" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>44</v>
+      <c r="B55" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>69</v>
+      <c r="B56" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>71</v>
+      <c r="B57" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>129</v>
+      <c r="B58" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
